--- a/dashboard_loader/skills_cert3_uploader/skills_cert3.xlsx
+++ b/dashboard_loader/skills_cert3_uploader/skills_cert3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t xml:space="preserve">Reduce the number of Australians without a Certificate III qualification or above</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t xml:space="preserve">The Survey of Education and Work was not conducted in Aboriginal and Torres Strait Islander communities in very remote areas, which affects the comparability of Northern Territory results as these communities account for around 15 per cent of the Northern Territory 15–74 year old population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS (various years) Education and Work, Australia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beddie, F. (2015). The outcomes of education and training: what the Australian research is telling us, 2011-14. Adelaide: NCVER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheelahan, L., Buchanan, J. and Yu, S. (2015). Linking qualifications and the labour market through capabilities and vocational streams. Adelaide: NCVER.</t>
   </si>
 </sst>
 </file>
@@ -122,11 +137,12 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,6 +158,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -165,13 +262,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,17 +278,74 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF00000A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -215,7 +370,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,82 +394,214 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="4" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF00000A"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -325,13 +612,13 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,17 +1441,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.0918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="98.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1235,10 +1522,31 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
